--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\Documents\Selenium_WFS\DataDrivenAproach\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703D2EE-45A4-403C-B10C-ACF764F3ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD397A41-0F02-4F0A-903A-C43DF52E23DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="openAccountTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>username1</t>
   </si>
@@ -98,6 +100,42 @@
   </si>
   <si>
     <t>mumbai</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>rahul1</t>
+  </si>
+  <si>
+    <t>arr1</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -509,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3C68A-2834-4FB3-93D6-0E308DC1AE33}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -562,4 +600,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DF388-78C1-4431-AF24-118F90F16C61}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>586538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E766DA-D36B-47A1-8713-7024976C8CDD}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>